--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1851.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1851.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4024444287045025</v>
+        <v>1.365258812904358</v>
       </c>
       <c r="B1">
-        <v>0.4857455514650751</v>
+        <v>2.796512126922607</v>
       </c>
       <c r="C1">
-        <v>0.6567048520896509</v>
+        <v>3.663173913955688</v>
       </c>
       <c r="D1">
-        <v>1.801706020795913</v>
+        <v>3.588552951812744</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.15246307849884</v>
       </c>
     </row>
   </sheetData>
